--- a/08_Protect_Mode/13 中断门.xlsx
+++ b/08_Protect_Mode/13 中断门.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320ABBDD-B589-4F8A-A746-42CD43326DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE8821B-9111-4411-BDBB-6434299E8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0040ee00`00081000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2、写入中断门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,6 +717,10 @@
       </rPr>
       <t>中写入项 对应的索引值</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040ee00`00081000  (调用门 是xxxxecxx，0008任然是GDT中 0环段选择子)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1461,12 +1461,12 @@
     </row>
     <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
@@ -1511,43 +1511,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6A7A78-15BE-4664-95A4-0C0F98487BB9}">
   <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1671,12 +1671,12 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="38" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="41" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="43" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="44" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="46" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>

--- a/08_Protect_Mode/13 中断门.xlsx
+++ b/08_Protect_Mode/13 中断门.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE8821B-9111-4411-BDBB-6434299E8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F626A60-5A5F-4A24-858B-6FD15E909AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Interrupt Gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,22 @@
   </si>
   <si>
     <t>0040ee00`00081000  (调用门 是xxxxecxx，0008任然是GDT中 0环段选择子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDT表可以包含3种门描述符：</t>
+  </si>
+  <si>
+    <t>任务门描述符</t>
+  </si>
+  <si>
+    <t>中断门描述符</t>
+  </si>
+  <si>
+    <t>陷阱门描述符</t>
+  </si>
+  <si>
+    <t>5、进入中断门会清除eflag的 VM NT IF TF位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +878,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -890,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -916,6 +949,9 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -939,15 +975,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>258925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:colOff>243685</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -977,7 +1013,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1264920" y="2087881"/>
+          <a:off x="1249680" y="3032761"/>
           <a:ext cx="5090005" cy="2202180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1436,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R11"/>
+  <dimension ref="B2:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1469,15 +1505,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="M6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1492,8 +1542,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1511,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6A7A78-15BE-4664-95A4-0C0F98487BB9}">
   <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/08_Protect_Mode/13 中断门.xlsx
+++ b/08_Protect_Mode/13 中断门.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F626A60-5A5F-4A24-858B-6FD15E909AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C3A334-627E-40D9-8865-C69100BD59C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8700" yWindow="2184" windowWidth="13272" windowHeight="9864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1590,6 +1591,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6021E76-000A-4A8D-B43C-2F85FCC9D5AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6A7A78-15BE-4664-95A4-0C0F98487BB9}">
   <dimension ref="B2:K63"/>
   <sheetViews>

--- a/08_Protect_Mode/13 中断门.xlsx
+++ b/08_Protect_Mode/13 中断门.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C3A334-627E-40D9-8865-C69100BD59C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CACA60A-65E6-443E-8E38-CBB05482DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8700" yWindow="2184" windowWidth="13272" windowHeight="9864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1475,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1591,24 +1590,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6021E76-000A-4A8D-B43C-2F85FCC9D5AA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6A7A78-15BE-4664-95A4-0C0F98487BB9}">
   <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
